--- a/classification/droptc/sentence/modern-bert/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3451312482357025</v>
+        <v>0.3803738355636597</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6089891791343689</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5871070027351379</v>
+        <v>0.8505831956863403</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3729308545589447</v>
+        <v>0.754254162311554</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6609150171279907</v>
+        <v>0.9766908288002014</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3816289007663727</v>
+        <v>0.7930411696434021</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5386673808097839</v>
+        <v>0.626739501953125</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8472254276275635</v>
+        <v>0.8839755654335022</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2865511775016785</v>
+        <v>0.626739501953125</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4728878140449524</v>
+        <v>0.812307596206665</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6543797850608826</v>
+        <v>0.8239424824714661</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.283904492855072</v>
+        <v>0.840517520904541</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6657037734985352</v>
+        <v>0.8337363004684448</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.635378897190094</v>
+        <v>0.9191555380821228</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5230482816696167</v>
+        <v>0.8852335810661316</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9317825436592102</v>
+        <v>0.798631489276886</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6028457880020142</v>
+        <v>0.7149142622947693</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7373360991477966</v>
+        <v>0.9819753766059875</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.619384765625</v>
+        <v>0.8569871783256531</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3320520222187042</v>
+        <v>0.9968830347061157</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4111723005771637</v>
+        <v>0.7367081046104431</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3793114721775055</v>
+        <v>0.9876311421394348</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3354596197605133</v>
+        <v>0.9147457480430603</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6019080877304077</v>
+        <v>0.3461505472660065</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3816289007663727</v>
+        <v>0.3498261868953705</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6061379313468933</v>
+        <v>0.9652070999145508</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8343081474304199</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6489699482917786</v>
+        <v>0.7077372074127197</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6236235499382019</v>
+        <v>0.9373291730880737</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8613314628601074</v>
+        <v>0.8418319821357727</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8862974047660828</v>
+        <v>0.8807217478752136</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.585573136806488</v>
+        <v>0.6387304067611694</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8162306547164917</v>
+        <v>0.937728226184845</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7142558097839355</v>
+        <v>0.9727105498313904</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2860042154788971</v>
+        <v>0.9534995555877686</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6406979560852051</v>
+        <v>0.9748501777648926</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7655429244041443</v>
+        <v>0.9529391527175903</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3299026191234589</v>
+        <v>0.972775399684906</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.596571683883667</v>
+        <v>0.292384922504425</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5293278098106384</v>
+        <v>0.9959576725959778</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.613617479801178</v>
+        <v>0.5091801285743713</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4032351970672607</v>
+        <v>0.6640613079071045</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.304119735956192</v>
+        <v>0.9120739698410034</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6222356557846069</v>
+        <v>0.868222713470459</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3649276494979858</v>
+        <v>0.8735572099685669</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7452240586280823</v>
+        <v>0.5594748258590698</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5313354134559631</v>
+        <v>0.8307531476020813</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.598924458026886</v>
+        <v>0.9991256594657898</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5248754024505615</v>
+        <v>0.9074549674987793</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8464784026145935</v>
+        <v>0.6572334766387939</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4911434352397919</v>
+        <v>0.9097798466682434</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5167089104652405</v>
+        <v>0.9074549674987793</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6318239569664001</v>
+        <v>0.6538709402084351</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5735693573951721</v>
+        <v>0.996653139591217</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8264524340629578</v>
+        <v>0.9979630708694458</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6617582440376282</v>
+        <v>0.9986057877540588</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.423375278711319</v>
+        <v>0.8577583432197571</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7321462035179138</v>
+        <v>0.9869580864906311</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7355498075485229</v>
+        <v>0.8626048564910889</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.9667669534683228</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5031723380088806</v>
+        <v>0.8201846480369568</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7820926308631897</v>
+        <v>0.8717978596687317</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6084004640579224</v>
+        <v>0.6685890555381775</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7499294281005859</v>
+        <v>0.9201013445854187</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4124030470848083</v>
+        <v>0.9201013445854187</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.54038405418396</v>
+        <v>0.7740079164505005</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8275352120399475</v>
+        <v>0.9201013445854187</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6380352377891541</v>
+        <v>0.6824935078620911</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7289352416992188</v>
+        <v>0.9170945882797241</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7465482354164124</v>
+        <v>0.6196757555007935</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5459418892860413</v>
+        <v>0.988410472869873</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3793114721775055</v>
+        <v>0.8770936727523804</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3231696486473083</v>
+        <v>0.6803167462348938</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4124030470848083</v>
+        <v>0.6169314384460449</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.8770936727523804</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.5781906247138977</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7009260058403015</v>
+        <v>0.8770936727523804</v>
       </c>
     </row>
     <row r="79">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2966093719005585</v>
+        <v>0.9944608211517334</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.611592710018158</v>
+        <v>0.4327140152454376</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.312782496213913</v>
+        <v>0.3322496712207794</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4291417002677917</v>
+        <v>0.5747591853141785</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.890241801738739</v>
+        <v>0.8336890935897827</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5764465928077698</v>
+        <v>0.8336890935897827</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4124030470848083</v>
+        <v>0.9847628474235535</v>
       </c>
     </row>
     <row r="86">
@@ -2835,14 +2835,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5026950240135193</v>
+        <v>0.8756096959114075</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.598924458026886</v>
+        <v>0.8984823822975159</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5807068943977356</v>
+        <v>0.8229154944419861</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7382638454437256</v>
+        <v>0.6685212254524231</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8175160884857178</v>
+        <v>0.9817389845848083</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5574949979782104</v>
+        <v>0.9803357124328613</v>
       </c>
     </row>
     <row r="92">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2966093719005585</v>
+        <v>0.9803550243377686</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5626475811004639</v>
+        <v>0.9853408932685852</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5891306400299072</v>
+        <v>0.9855003952980042</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4420460164546967</v>
+        <v>0.978829026222229</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6760238409042358</v>
+        <v>0.9828901886940002</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2680124044418335</v>
+        <v>0.356669545173645</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.9854795336723328</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4280219972133636</v>
+        <v>0.8976459503173828</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.335380882024765</v>
+        <v>0.7553207874298096</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.832432746887207</v>
+        <v>0.9632692337036133</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8228468894958496</v>
+        <v>0.5390344858169556</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.5563297867774963</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7396066188812256</v>
+        <v>0.8790743350982666</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6827051639556885</v>
+        <v>0.9503207802772522</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3670213520526886</v>
+        <v>0.9580501914024353</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5962300896644592</v>
+        <v>0.4730831980705261</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5674068927764893</v>
+        <v>0.5730714201927185</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6484708189964294</v>
+        <v>0.9458483457565308</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8675227165222168</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6167199611663818</v>
+        <v>0.7170473337173462</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4038373529911041</v>
+        <v>0.6569623351097107</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8146914839744568</v>
+        <v>0.8761492967605591</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9478940963745117</v>
+        <v>0.9798042774200439</v>
       </c>
     </row>
     <row r="115">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.2879429757595062</v>
+        <v>0.7160136103630066</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4941063821315765</v>
+        <v>0.3974425196647644</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.390680342912674</v>
+        <v>0.8037612438201904</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9441679120063782</v>
+        <v>0.3902272880077362</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7421250939369202</v>
+        <v>0.6930682063102722</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8968486189842224</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3513072729110718</v>
+        <v>0.7967014312744141</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7141782641410828</v>
+        <v>0.9633221030235291</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7354364395141602</v>
+        <v>0.7967014312744141</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6855066418647766</v>
+        <v>0.9633221030235291</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8378097414970398</v>
+        <v>0.7967014312744141</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6668412685394287</v>
+        <v>0.9964686632156372</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6651714444160461</v>
+        <v>0.2745832800865173</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7348690629005432</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6478366255760193</v>
+        <v>0.6652952432632446</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7111830711364746</v>
+        <v>0.4966375231742859</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7375949025154114</v>
+        <v>0.9890279769897461</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4885993599891663</v>
+        <v>0.6861155033111572</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7311335802078247</v>
+        <v>0.9532355070114136</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.6489699482917786</v>
+        <v>0.461344987154007</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.848318338394165</v>
+        <v>0.9905074834823608</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.734879732131958</v>
+        <v>0.8372480869293213</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6028457880020142</v>
+        <v>0.9847672581672668</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.2663693130016327</v>
+        <v>0.7992444038391113</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.6285895109176636</v>
+        <v>0.9875048995018005</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5141315460205078</v>
+        <v>0.9935584664344788</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.798853874206543</v>
+        <v>0.7797372341156006</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7370856404304504</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6917850375175476</v>
+        <v>0.3778683841228485</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.4237169623374939</v>
+        <v>0.9635032415390015</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3481611907482147</v>
+        <v>0.3778683841228485</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4449295699596405</v>
+        <v>0.9525074362754822</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5187598466873169</v>
+        <v>0.6824935078620911</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6210532188415527</v>
+        <v>0.8864730000495911</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5327861309051514</v>
+        <v>0.8349885940551758</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.6396946310997009</v>
+        <v>0.4216211438179016</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5871387720108032</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.312782496213913</v>
+        <v>0.4163995981216431</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.772646963596344</v>
+        <v>0.9797729253768921</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7200314402580261</v>
+        <v>0.7386890649795532</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7551249861717224</v>
+        <v>0.9952161312103271</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4863521158695221</v>
+        <v>0.5001581311225891</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8656681180000305</v>
+        <v>0.9944092631340027</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.587918221950531</v>
+        <v>0.7095714211463928</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.8542909026145935</v>
+        <v>0.9971292614936829</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6344403028488159</v>
+        <v>0.6781821846961975</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8655702471733093</v>
+        <v>0.9870544075965881</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6000043749809265</v>
+        <v>0.9672236442565918</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.8377007246017456</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7220517992973328</v>
+        <v>0.5743533968925476</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3793114721775055</v>
+        <v>0.9888457655906677</v>
       </c>
     </row>
     <row r="166">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4291417002677917</v>
+        <v>0.8915147185325623</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.6884641647338867</v>
+        <v>0.5946363210678101</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.312782496213913</v>
+        <v>0.6181546449661255</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8874058723449707</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8299918174743652</v>
+        <v>0.5946363210678101</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7466667890548706</v>
+        <v>0.7331331968307495</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2860042154788971</v>
+        <v>0.999620795249939</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7200208902359009</v>
+        <v>0.9054253101348877</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7194186449050903</v>
+        <v>0.9215329885482788</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8197920918464661</v>
+        <v>0.9054253101348877</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8279026746749878</v>
+        <v>0.8270635604858398</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5261064767837524</v>
+        <v>0.9215329885482788</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.4992346465587616</v>
+        <v>0.8713662624359131</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.532464861869812</v>
+        <v>0.9814711213111877</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7466656565666199</v>
+        <v>0.9478179812431335</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7858430147171021</v>
+        <v>0.5987564325332642</v>
       </c>
     </row>
     <row r="182">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5359746217727661</v>
+        <v>0.9619746208190918</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.2479963898658752</v>
+        <v>0.4610676765441895</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4407813251018524</v>
+        <v>0.9992037415504456</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6064291000366211</v>
+        <v>0.9642974734306335</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.3993588387966156</v>
+        <v>0.96451336145401</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5574949979782104</v>
+        <v>0.9673829674720764</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.9676920771598816</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4056570529937744</v>
+        <v>0.9665569067001343</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8862974047660828</v>
+        <v>0.9713929891586304</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5325646996498108</v>
+        <v>0.3678658902645111</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6443780660629272</v>
+        <v>0.9500291347503662</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6632332801818848</v>
+        <v>0.9602159857749939</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3817919790744781</v>
+        <v>0.8728132247924805</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6815076470375061</v>
+        <v>0.6254688501358032</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7999469041824341</v>
+        <v>0.9986334443092346</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.8019713163375854</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3513651490211487</v>
+        <v>0.4685635566711426</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7600861787796021</v>
+        <v>0.8869171738624573</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8050076365470886</v>
+        <v>0.8711854219436646</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7602049112319946</v>
+        <v>0.9975515007972717</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.4134120345115662</v>
+        <v>0.9821038842201233</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8168874979019165</v>
+        <v>0.8203556537628174</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8934069871902466</v>
+        <v>0.3071345090866089</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5887905359268188</v>
+        <v>0.6918827891349792</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7250402569770813</v>
+        <v>0.9953658580780029</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7701608538627625</v>
+        <v>0.4581373333930969</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7246986627578735</v>
+        <v>0.9589031934738159</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6335164308547974</v>
+        <v>0.5423838496208191</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7603737711906433</v>
+        <v>0.9993922710418701</v>
       </c>
     </row>
   </sheetData>
